--- a/public/assets/updated-excels/cable-bridge.xlsx
+++ b/public/assets/updated-excels/cable-bridge.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>Visual Check</t>
   </si>
@@ -74,19 +74,19 @@
     <t>Semak Samun</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>KLANG</t>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>6130 - Petaling Jaya</t>
   </si>
   <si>
     <t>aero</t>
   </si>
   <si>
-    <t>1995-02-05 00:00:00</t>
-  </si>
-  <si>
-    <t>07:52:00</t>
+    <t>2023-09-16</t>
+  </si>
+  <si>
+    <t>03:41:36</t>
   </si>
   <si>
     <t>Expedita quas praese</t>
@@ -98,25 +98,91 @@
     <t>1996-12-06</t>
   </si>
   <si>
-    <t>Ea at vero in quasi</t>
-  </si>
-  <si>
-    <t>Consequatur tempora</t>
-  </si>
-  <si>
-    <t>Magna consequat Sae</t>
-  </si>
-  <si>
-    <t>Quia fugiat ducimus</t>
-  </si>
-  <si>
-    <t>Nobis expedita verit</t>
-  </si>
-  <si>
-    <t>Omnis voluptas a vol</t>
-  </si>
-  <si>
-    <t>Et ea omnis sunt do</t>
+    <t>11kV</t>
+  </si>
+  <si>
+    <t>74.1835261 , 32.1800424</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>KUALA LUMPUR PUSAT</t>
+  </si>
+  <si>
+    <t>1988-06-17</t>
+  </si>
+  <si>
+    <t>19:20:00</t>
+  </si>
+  <si>
+    <t>Possimus earum nisi</t>
+  </si>
+  <si>
+    <t>2020-10-02</t>
+  </si>
+  <si>
+    <t>1982-03-19</t>
+  </si>
+  <si>
+    <t>Eiusmod quaerat rem</t>
+  </si>
+  <si>
+    <t>Dolores nesciunt id</t>
+  </si>
+  <si>
+    <t>Voluptatum quam impe</t>
+  </si>
+  <si>
+    <t>Corporis culpa magn</t>
+  </si>
+  <si>
+    <t>Harum animi enim ar</t>
+  </si>
+  <si>
+    <t>Porro inventore est</t>
+  </si>
+  <si>
+    <t>Mollitia cumque est</t>
+  </si>
+  <si>
+    <t>1990-01-03</t>
+  </si>
+  <si>
+    <t>21:56:00</t>
+  </si>
+  <si>
+    <t>Sed atque enim atque</t>
+  </si>
+  <si>
+    <t>2020-06-29</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>Duis ea sed aliquip</t>
+  </si>
+  <si>
+    <t>Et delectus quia ar</t>
+  </si>
+  <si>
+    <t>Qui in doloremque od</t>
+  </si>
+  <si>
+    <t>Velit tenetur cupid</t>
+  </si>
+  <si>
+    <t>Animi praesentium d</t>
+  </si>
+  <si>
+    <t>Omnis exercitationem</t>
+  </si>
+  <si>
+    <t>Adipisicing eum aliq</t>
   </si>
 </sst>
 </file>
@@ -508,7 +574,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="G3" sqref="G3"/>
@@ -634,16 +700,118 @@
         <v>29</v>
       </c>
       <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="O4" t="s">
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="P4" t="s">
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="F5" t="s">
         <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
